--- a/xlsx/娱乐周刊_intext.xlsx
+++ b/xlsx/娱乐周刊_intext.xlsx
@@ -29,7 +29,7 @@
     <t>时代华纳</t>
   </si>
   <si>
-    <t>政策_政策_美國_娱乐周刊</t>
+    <t>政策_政策_美国_娱乐周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%80%81%E5%8C%AF%E9%9F%B3%E6%A8%82%E5%8A%87</t>
   </si>
   <si>
-    <t>百老匯音樂劇</t>
+    <t>百老汇音乐剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BC%E8%89%BA_(%E6%9D%82%E5%BF%97)</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
 </sst>
 </file>
